--- a/server/record.xlsx
+++ b/server/record.xlsx
@@ -1247,7 +1247,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>

--- a/server/record.xlsx
+++ b/server/record.xlsx
@@ -1940,7 +1940,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C137" t="n">
         <v>0</v>
@@ -5251,7 +5251,7 @@
         <v>437</v>
       </c>
       <c r="B438" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C438" t="n">
         <v>0</v>
@@ -5394,7 +5394,7 @@
         <v>450</v>
       </c>
       <c r="B451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C451" t="n">
         <v>0</v>
@@ -5823,7 +5823,7 @@
         <v>489</v>
       </c>
       <c r="B490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C490" t="n">
         <v>0</v>
@@ -6571,7 +6571,7 @@
         <v>557</v>
       </c>
       <c r="B558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C558" t="n">
         <v>0</v>
@@ -7143,7 +7143,7 @@
         <v>609</v>
       </c>
       <c r="B610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C610" t="n">
         <v>0</v>
